--- a/medicine/Psychotrope/Brauerei_Bub/Brauerei_Bub.xlsx
+++ b/medicine/Psychotrope/Brauerei_Bub/Brauerei_Bub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Bub est une brasserie à Leinburg.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Bub est la brasserie privée la plus ancienne du Pays de Nuremberg. À l'instigation du patriciat de Nuremberg, la bière est brassée en 1617 à Leinburg. La brasserie, qui s'appelle alors Kyfabers Brey Haus, prend en 1830 le nom de brasserie Zur Krone, propriété de Johann Bub et Kunigunde Bachmeyer. Depuis lors, la société est gérée par des membres de la famille Bub. À l'origine, les Bub sont des meuniers et exploitent à côté d'autres moulins l'ancien Roßmühle et l'Obermühle du Reichswald de Nuremberg.
 </t>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leinburger Weissbier
 Leinburger Weizen-Bock
